--- a/Tests.TestReport/Templates/Template.xlsx
+++ b/Tests.TestReport/Templates/Template.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleTemplate" sheetId="1" r:id="rId1"/>
     <sheet name="AdvancedTemplate" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Head">Table1[#Headers]</definedName>
+    <definedName name="Head">SimpleTemplate!$A$1:$C$1</definedName>
     <definedName name="Row">SimpleTemplate!$A$2:$C$2</definedName>
+    <definedName name="Total">SimpleTemplate!$A$3:$C$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,11 +44,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,19 +56,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,77 +98,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <charset val="204"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -169,18 +124,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C3" totalsRowCount="1">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Company" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="ContractCount" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="ContractSum" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency" totalsRowCellStyle="Currency"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +392,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,40 +403,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3">
-        <f>SUBTOTAL(109,Table1[ContractSum])</f>
+      <c r="C3" s="1">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
